--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Register Map</t>
   </si>
@@ -159,6 +159,27 @@
   </si>
   <si>
     <t>P-type transistor bias</t>
+  </si>
+  <si>
+    <t>LSB</t>
+  </si>
+  <si>
+    <t>ENABLE FIRMWARE FEEDBACK LOOP for ROvcp</t>
+  </si>
+  <si>
+    <t>ring oscillator counter divider output</t>
+  </si>
+  <si>
+    <t>trig sign - in psec4a serial block</t>
+  </si>
+  <si>
+    <t>dll speed select - in psec4a serial block</t>
+  </si>
+  <si>
+    <t>use reset in xfer process - in psec4a serial block</t>
+  </si>
+  <si>
+    <t>COUNT TARGET for ring osc when reg 0x52 enabled</t>
   </si>
 </sst>
 </file>
@@ -223,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,14 +292,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +584,7 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,36 +599,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>15</v>
@@ -713,6 +735,9 @@
         <f t="shared" si="0"/>
         <v>x04</v>
       </c>
+      <c r="D11" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -723,7 +748,12 @@
         <f t="shared" si="0"/>
         <v>x05</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -782,7 +812,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -796,7 +826,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -810,7 +840,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -824,7 +854,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -838,7 +868,7 @@
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -852,7 +882,7 @@
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -866,7 +896,7 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -880,7 +910,7 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -894,7 +924,7 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -908,7 +938,7 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -922,7 +952,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -936,7 +966,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -950,7 +980,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -964,7 +994,7 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="32"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -978,7 +1008,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
@@ -992,7 +1022,7 @@
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="32"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -1006,7 +1036,7 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="32"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
@@ -1020,7 +1050,7 @@
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -1034,7 +1064,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="32"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
@@ -1048,7 +1078,7 @@
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="32"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
@@ -1062,7 +1092,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="32"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
@@ -1076,7 +1106,7 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="32"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -1090,7 +1120,7 @@
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="32"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
@@ -1104,7 +1134,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="32"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
@@ -1118,7 +1148,7 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="32"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1645,7 +1675,9 @@
         <f t="shared" si="2"/>
         <v>x51</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -1656,7 +1688,12 @@
         <f t="shared" si="2"/>
         <v>x52</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -1667,7 +1704,12 @@
         <f t="shared" si="2"/>
         <v>x53</v>
       </c>
-      <c r="D90" s="5"/>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -1678,6 +1720,12 @@
         <f t="shared" si="2"/>
         <v>x54</v>
       </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -1688,7 +1736,12 @@
         <f t="shared" si="2"/>
         <v>x55</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="C92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
       <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Register Map</t>
   </si>
@@ -167,9 +167,6 @@
     <t>ENABLE FIRMWARE FEEDBACK LOOP for ROvcp</t>
   </si>
   <si>
-    <t>ring oscillator counter divider output</t>
-  </si>
-  <si>
     <t>trig sign - in psec4a serial block</t>
   </si>
   <si>
@@ -179,7 +176,16 @@
     <t>use reset in xfer process - in psec4a serial block</t>
   </si>
   <si>
-    <t>COUNT TARGET for ring osc when reg 0x52 enabled</t>
+    <t>ring oscillator counter divider output (low 16 bits)</t>
+  </si>
+  <si>
+    <t>ring oscillator counter divider output (high 16 bits)</t>
+  </si>
+  <si>
+    <t>COUNT TARGET (low 16 bits) for ring osc when reg 0x52 enabled</t>
+  </si>
+  <si>
+    <t>COUNT TARGET (high 16 bits) for ring osc when reg 0x52 enabled</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -749,7 +755,7 @@
         <v>x05</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>9</v>
@@ -764,7 +770,12 @@
         <f t="shared" si="0"/>
         <v>x06</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="C13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1665,6 +1676,9 @@
         <f t="shared" si="2"/>
         <v>x50</v>
       </c>
+      <c r="C87" s="28" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -1676,7 +1690,7 @@
         <v>x51</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,7 +1719,7 @@
         <v>x53</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>45</v>
@@ -1721,7 +1735,7 @@
         <v>x54</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D91" t="s">
         <v>45</v>
@@ -1737,7 +1751,7 @@
         <v>x55</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Register Map</t>
   </si>
@@ -47,9 +47,6 @@
     <t>address pulsed</t>
   </si>
   <si>
-    <t>rdout-&gt;do a data readout</t>
-  </si>
-  <si>
     <t>firmware_version</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>firmware_year</t>
   </si>
   <si>
-    <t>write this register to initiate single 4-byte SPI readout. NOTE: this function is also called by writing registers 109</t>
-  </si>
-  <si>
     <t>lower 10 bits</t>
   </si>
   <si>
@@ -186,6 +180,27 @@
   </si>
   <si>
     <t>COUNT TARGET (high 16 bits) for ring osc when reg 0x52 enabled</t>
+  </si>
+  <si>
+    <t>not implemented yet. DAC just updates every second</t>
+  </si>
+  <si>
+    <t>lower 16 bits</t>
+  </si>
+  <si>
+    <t>write this register to initiate single 4-byte USB readout. NOTE: this function is also called by writing registers 109</t>
+  </si>
+  <si>
+    <t>readout: do a register read</t>
+  </si>
+  <si>
+    <t>pulsed register (values only up for one clock cycle)</t>
+  </si>
+  <si>
+    <t>global reset</t>
+  </si>
+  <si>
+    <t>sw trigger</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,7 +280,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -304,9 +318,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,26 +607,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -636,790 +656,784 @@
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="20" t="str">
-        <f>"x" &amp; DEC2HEX(A7,2)</f>
-        <v>x00</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="20" t="str">
-        <f t="shared" ref="B8:B71" si="0">"x" &amp; DEC2HEX(A8,2)</f>
-        <v>x01</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>"x" &amp; DEC2HEX(A8,2)</f>
+        <v>x00</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>1+A8</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x02</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f t="shared" ref="B9:B72" si="0">"x" &amp; DEC2HEX(A9,2)</f>
+        <v>x01</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A73" si="1">1+A9</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x03</v>
+        <f>1+A9</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x02</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x04</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>9</v>
+        <f t="shared" ref="A11:A74" si="1">1+A10</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x03</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x05</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x04</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x06</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x05</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x07</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x06</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x08</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x07</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x08</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B16" s="20" t="str">
+      <c r="B17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>x09</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x0A</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x0B</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x0C</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x0D</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x0E</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x0F</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x10</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x11</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x12</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x13</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x14</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x15</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x16</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x17</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x18</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x19</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x1A</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B35" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x1B</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B35" s="21" t="str">
+      <c r="B36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x1C</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B36" s="21" t="str">
+      <c r="B37" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x1D</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B37" s="21" t="str">
+      <c r="B38" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x1E</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B39" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x1F</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B39" s="21" t="str">
+      <c r="B40" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x20</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B40" s="21" t="str">
+      <c r="B41" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x21</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B41" s="21" t="str">
+      <c r="B42" s="20" t="str">
         <f t="shared" si="0"/>
         <v>x22</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B42" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x23</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="F42" s="17"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B43" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x24</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="F43" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x23</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B44" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x25</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="F44" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x24</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B45" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x26</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="F45" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x25</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B46" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x27</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x26</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B47" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x28</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B47" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x27</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B48" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x29</v>
+        <v>40</v>
+      </c>
+      <c r="B48" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B49" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x2A</v>
+        <v>41</v>
+      </c>
+      <c r="B49" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x29</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B50" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x2B</v>
+        <v>42</v>
+      </c>
+      <c r="B50" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x2A</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B51" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x2C</v>
+        <v>43</v>
+      </c>
+      <c r="B51" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x2B</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B52" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x2D</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x2C</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B53" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x2E</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B53" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x2D</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B54" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x2F</v>
+        <v>46</v>
+      </c>
+      <c r="B54" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x2E</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B55" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x30</v>
+        <v>47</v>
+      </c>
+      <c r="B55" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x2F</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B56" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x31</v>
+        <v>48</v>
+      </c>
+      <c r="B56" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x30</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B57" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x32</v>
+        <v>49</v>
+      </c>
+      <c r="B57" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x31</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B58" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x33</v>
+        <v>50</v>
+      </c>
+      <c r="B58" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x32</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B59" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x34</v>
+        <v>51</v>
+      </c>
+      <c r="B59" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x33</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B60" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x35</v>
+        <v>52</v>
+      </c>
+      <c r="B60" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x34</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B61" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x36</v>
+        <v>53</v>
+      </c>
+      <c r="B61" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x35</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B62" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x37</v>
+        <v>54</v>
+      </c>
+      <c r="B62" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x36</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B63" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x38</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x37</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B64" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x39</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x38</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B65" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x3A</v>
+        <v>57</v>
+      </c>
+      <c r="B65" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x39</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5"/>
@@ -1428,11 +1442,11 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B66" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x3B</v>
+        <v>58</v>
+      </c>
+      <c r="B66" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x3A</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="5"/>
@@ -1441,919 +1455,960 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B67" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x3C</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B67" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x3B</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B68" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x3D</v>
+        <v>60</v>
+      </c>
+      <c r="B68" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x3C</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B69" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x3E</v>
+        <v>61</v>
+      </c>
+      <c r="B69" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x3D</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B70" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x3F</v>
+        <v>62</v>
+      </c>
+      <c r="B70" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x3E</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B71" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>x40</v>
+        <v>63</v>
+      </c>
+      <c r="B71" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x3F</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B72" s="20" t="str">
-        <f t="shared" ref="B72:B134" si="2">"x" &amp; DEC2HEX(A72,2)</f>
-        <v>x41</v>
+        <v>64</v>
+      </c>
+      <c r="B72" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x40</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B73" s="19" t="str">
+        <f t="shared" ref="B73:B135" si="2">"x" &amp; DEC2HEX(A73,2)</f>
+        <v>x41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B73" s="20" t="str">
+      <c r="B74" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x42</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <f t="shared" ref="A74:A134" si="3">1+A73</f>
+    <row r="75" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <f t="shared" ref="A75:A135" si="3">1+A74</f>
         <v>67</v>
       </c>
-      <c r="B74" s="20" t="str">
+      <c r="B75" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x43</v>
       </c>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B75" s="20" t="str">
+      <c r="B76" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x44</v>
       </c>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B76" s="20" t="str">
+      <c r="B77" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x45</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B77" s="20" t="str">
+      <c r="B78" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x46</v>
       </c>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B78" s="20" t="str">
+      <c r="B79" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x47</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="13" t="s">
+      <c r="C79" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E79" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="F79" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B79" s="20" t="str">
+      <c r="B80" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x48</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="B80" s="20" t="str">
+      <c r="B81" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x49</v>
       </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="B81" s="20" t="str">
+      <c r="B82" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x4A</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="13"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="C82" s="8"/>
+      <c r="D82" s="12"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="B82" s="20" t="str">
+      <c r="B83" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x4B</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="26"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="B83" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x4C</v>
-      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="25"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="B84" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x4D</v>
+        <v>76</v>
+      </c>
+      <c r="B84" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x4C</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="B85" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x4E</v>
+        <v>77</v>
+      </c>
+      <c r="B85" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x4D</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="B86" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x4F</v>
+        <v>78</v>
+      </c>
+      <c r="B86" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x4E</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="B87" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x50</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>52</v>
+        <v>79</v>
+      </c>
+      <c r="B87" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x4F</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B88" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x51</v>
-      </c>
-      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x50</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B89" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x52</v>
+        <v>81</v>
+      </c>
+      <c r="B89" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x51</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="B90" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x53</v>
+        <v>82</v>
+      </c>
+      <c r="B90" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x52</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="B91" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x54</v>
+        <v>83</v>
+      </c>
+      <c r="B91" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x53</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91" t="s">
         <v>45</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B92" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x55</v>
+        <v>84</v>
+      </c>
+      <c r="B92" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x54</v>
       </c>
       <c r="C92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92" s="12"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="B93" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x56</v>
+        <v>85</v>
+      </c>
+      <c r="B93" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x55</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="B94" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x57</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="B94" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="B95" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x58</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x57</v>
+      </c>
+      <c r="C95" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="12"/>
+      <c r="D95" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="B96" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x59</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="B96" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x58</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="11"/>
       <c r="F96" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B97" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x5A</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="B97" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x59</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="11"/>
       <c r="F97" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="B98" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x5B</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="B98" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x5A</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="B99" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x5C</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="B99" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x5B</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="B100" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x5D</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="B100" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x5C</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="B101" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x5E</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="B101" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x5D</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="B102" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x5F</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="B102" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x5E</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="B103" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x60</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="B103" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x5F</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="B104" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x61</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="B104" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x60</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="B105" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x62</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="B105" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x61</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="B106" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x63</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="B106" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x62</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="B107" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x64</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="B107" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x63</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="3"/>
-        <v>101</v>
-      </c>
-      <c r="B108" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x65</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="B108" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x64</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="B109" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x66</v>
-      </c>
-      <c r="C109" t="s">
-        <v>41</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>24</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B109" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x65</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="B110" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x67</v>
+        <v>102</v>
+      </c>
+      <c r="B110" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x66</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="B111" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x68</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D111" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="B111" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x67</v>
+      </c>
+      <c r="C111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="B112" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x69</v>
-      </c>
-      <c r="C112" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="B112" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x68</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="B113" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6A</v>
-      </c>
-      <c r="C113" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="B113" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x69</v>
+      </c>
+      <c r="C113" s="22"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="B114" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6B</v>
-      </c>
-      <c r="C114" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="B114" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x6A</v>
+      </c>
+      <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="B115" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6C</v>
-      </c>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="B115" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x6B</v>
+      </c>
+      <c r="C115" s="23"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="B116" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6D</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B116" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x6C</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="B117" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6E</v>
+        <v>109</v>
+      </c>
+      <c r="B117" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x6D</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-      <c r="B118" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x6F</v>
+        <v>110</v>
+      </c>
+      <c r="B118" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x6E</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x70</v>
-      </c>
-      <c r="C119" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="B119" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x6F</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x71</v>
-      </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="B120" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x70</v>
+      </c>
+      <c r="C120" s="22"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="B121" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x72</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B121" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x71</v>
+      </c>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="B122" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x73</v>
-      </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="B122" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x72</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B123" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x74</v>
-      </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
+        <v>115</v>
+      </c>
+      <c r="B123" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x73</v>
+      </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B124" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x75</v>
-      </c>
-      <c r="C124" s="23"/>
+        <v>116</v>
+      </c>
+      <c r="B124" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x74</v>
+      </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B125" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x76</v>
-      </c>
-      <c r="D125" s="23"/>
+        <v>117</v>
+      </c>
+      <c r="B125" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x75</v>
+      </c>
+      <c r="C125" s="22"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B126" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x77</v>
-      </c>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="B126" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x76</v>
+      </c>
+      <c r="D126" s="22"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B127" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>x78</v>
-      </c>
-      <c r="C127" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="B127" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x77</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B128" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x78</v>
+      </c>
+      <c r="C128" s="23"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B128" s="20" t="str">
+      <c r="B129" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x79</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B129" s="20" t="str">
+      <c r="B130" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7A</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B130" s="20" t="str">
+      <c r="B131" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7B</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B131" s="20" t="str">
+      <c r="B132" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7C</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="C132" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B132" s="20" t="str">
+      <c r="B133" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7D</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B133" s="20" t="str">
+      <c r="B134" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7E</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B134" s="20" t="str">
+      <c r="B135" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7F</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="C135" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Register Map</t>
   </si>
@@ -176,12 +176,6 @@
     <t>ring oscillator counter divider output (high 16 bits)</t>
   </si>
   <si>
-    <t>COUNT TARGET (low 16 bits) for ring osc when reg 0x52 enabled</t>
-  </si>
-  <si>
-    <t>COUNT TARGET (high 16 bits) for ring osc when reg 0x52 enabled</t>
-  </si>
-  <si>
     <t>not implemented yet. DAC just updates every second</t>
   </si>
   <si>
@@ -201,6 +195,15 @@
   </si>
   <si>
     <t>sw trigger</t>
+  </si>
+  <si>
+    <t>ramp count - how long to wait for ramp to complete</t>
+  </si>
+  <si>
+    <t>RO COUNT TARGET (low 16 bits) for ring osc when reg 0x52 enabled</t>
+  </si>
+  <si>
+    <t>RO COUNT TARGET (high 16 bits) for ring osc when reg 0x52 enabled</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1593,7 @@
         <v>x47</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>6</v>
@@ -1599,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,6 +1696,12 @@
         <f t="shared" si="2"/>
         <v>x4F</v>
       </c>
+      <c r="C87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -1704,10 +1713,10 @@
         <v>x50</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,10 +1729,10 @@
         <v>x51</v>
       </c>
       <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,13 +2363,13 @@
         <v>x7C</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,13 +2402,13 @@
         <v>x7F</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Register Map</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>RO COUNT TARGET (high 16 bits) for ring osc when reg 0x52 enabled</t>
+  </si>
+  <si>
+    <t>readout: fifo select</t>
+  </si>
+  <si>
+    <t>value 1 to 8</t>
+  </si>
+  <si>
+    <t>adc start - delay between trigger and starting the ramp</t>
+  </si>
+  <si>
+    <t>readout: clk fifo readout</t>
+  </si>
+  <si>
+    <t>readout: reset fifo</t>
+  </si>
+  <si>
+    <t>data word</t>
   </si>
 </sst>
 </file>
@@ -268,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,6 +339,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -612,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,38 +650,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -670,7 +692,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -816,7 +838,9 @@
         <f t="shared" si="0"/>
         <v>x07</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="31" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -827,7 +851,12 @@
         <f t="shared" si="0"/>
         <v>x08</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1614,8 +1643,12 @@
         <f t="shared" si="2"/>
         <v>x48</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="C80" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E80" s="8"/>
       <c r="F80" s="17"/>
     </row>
@@ -1686,6 +1719,9 @@
         <f t="shared" si="2"/>
         <v>x4E</v>
       </c>
+      <c r="C86" s="31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -2332,6 +2368,9 @@
         <f t="shared" si="2"/>
         <v>x79</v>
       </c>
+      <c r="C129" s="31" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -2341,6 +2380,12 @@
       <c r="B130" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7A</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Register Map</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>data word</t>
+  </si>
+  <si>
+    <t>fifo used words</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,8 +870,12 @@
         <f t="shared" si="0"/>
         <v>x09</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Register Map</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>fifo used words</t>
+  </si>
+  <si>
+    <t>dll reset</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,6 +349,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -637,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,38 +659,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -695,7 +701,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="36"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2378,6 +2384,9 @@
       <c r="C129" s="31" t="s">
         <v>64</v>
       </c>
+      <c r="F129" s="33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -2404,6 +2413,9 @@
         <f t="shared" si="2"/>
         <v>x7B</v>
       </c>
+      <c r="F131" s="33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -2433,6 +2445,9 @@
         <f t="shared" si="2"/>
         <v>x7D</v>
       </c>
+      <c r="F133" s="33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -2442,6 +2457,15 @@
       <c r="B134" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x7E</v>
+      </c>
+      <c r="C134" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Register Map</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>dll reset</t>
+  </si>
+  <si>
+    <t>readout: num usb words for register read</t>
+  </si>
+  <si>
+    <t>x000002</t>
+  </si>
+  <si>
+    <t>readout: num usb words for data read</t>
+  </si>
+  <si>
+    <t>x000422</t>
+  </si>
+  <si>
+    <t>readout: do a data read</t>
   </si>
 </sst>
 </file>
@@ -643,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1615,12 @@
         <f t="shared" si="2"/>
         <v>x44</v>
       </c>
+      <c r="C76" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,8 +1632,13 @@
         <f t="shared" si="2"/>
         <v>x45</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="D77" s="8"/>
+      <c r="E77" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="78" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
@@ -1622,6 +1648,15 @@
       <c r="B78" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x46</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="F78" s="10"/>
     </row>

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>Register Map</t>
   </si>
@@ -149,9 +149,6 @@
     <t>DAC 18 value -- BiasRampSlope</t>
   </si>
   <si>
-    <t>DAC write strobe</t>
-  </si>
-  <si>
     <t>P-type transistor bias</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>ring oscillator counter divider output (high 16 bits)</t>
   </si>
   <si>
-    <t>not implemented yet. DAC just updates every second</t>
-  </si>
-  <si>
     <t>lower 16 bits</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>RO COUNT TARGET (high 16 bits) for ring osc when reg 0x52 enabled</t>
   </si>
   <si>
-    <t>readout: fifo select</t>
-  </si>
-  <si>
     <t>value 1 to 8</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>readout: clk fifo readout</t>
   </si>
   <si>
-    <t>readout: reset fifo</t>
-  </si>
-  <si>
     <t>data word</t>
   </si>
   <si>
@@ -243,6 +231,18 @@
   </si>
   <si>
     <t>readout: do a data read</t>
+  </si>
+  <si>
+    <t>readout: ram select</t>
+  </si>
+  <si>
+    <t>readout: reset</t>
+  </si>
+  <si>
+    <t>external DAC vped</t>
+  </si>
+  <si>
+    <t>external DAC vreset</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>x04</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>x05</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>8</v>
@@ -876,7 +876,7 @@
         <v>x08</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>8</v>
@@ -892,7 +892,7 @@
         <v>x09</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>8</v>
@@ -1616,10 +1616,10 @@
         <v>x44</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F76" s="10"/>
     </row>
@@ -1633,11 +1633,11 @@
         <v>x45</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>x46</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>6</v>
@@ -1670,7 +1670,7 @@
         <v>x47</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>6</v>
@@ -1679,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,10 +1692,10 @@
         <v>x48</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="17"/>
@@ -1768,7 +1768,7 @@
         <v>x4E</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,10 +1781,10 @@
         <v>x4F</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,10 +1797,10 @@
         <v>x50</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,10 +1813,10 @@
         <v>x51</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1829,10 +1829,10 @@
         <v>x52</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,10 +1845,10 @@
         <v>x53</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,10 +1861,10 @@
         <v>x54</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,10 +1877,10 @@
         <v>x55</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E93" s="11"/>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,13 +2210,7 @@
         <v>x68</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D112" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,7 +2222,9 @@
         <f t="shared" si="2"/>
         <v>x69</v>
       </c>
-      <c r="C113" s="22"/>
+      <c r="C113" s="22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -2417,10 +2413,10 @@
         <v>x79</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,10 +2429,10 @@
         <v>x7A</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F130" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -2449,7 +2445,7 @@
         <v>x7B</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,13 +2458,13 @@
         <v>x7C</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2477,7 @@
         <v>x7D</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -2494,13 +2490,13 @@
         <v>x7E</v>
       </c>
       <c r="C134" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -2513,13 +2509,13 @@
         <v>x7F</v>
       </c>
       <c r="C135" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>Register Map</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>external DAC vreset</t>
+  </si>
+  <si>
+    <t>psec4a_status_register</t>
+  </si>
+  <si>
+    <t>psec4a readout mode</t>
+  </si>
+  <si>
+    <t>0=all samples, 1=ping-pong 528-sample blocks</t>
   </si>
 </sst>
 </file>
@@ -307,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,6 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -658,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,38 +684,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -716,7 +726,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="37"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -908,7 +918,9 @@
         <v>x0A</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="28"/>
     </row>
@@ -922,7 +934,9 @@
         <v>x0B</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="29"/>
     </row>
@@ -935,8 +949,12 @@
         <f t="shared" si="0"/>
         <v>x0C</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="29"/>
     </row>
@@ -950,7 +968,9 @@
         <v>x0D</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="29"/>
     </row>
@@ -964,7 +984,9 @@
         <v>x0E</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="29"/>
     </row>
@@ -978,7 +1000,9 @@
         <v>x0F</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="29"/>
     </row>
@@ -992,7 +1016,9 @@
         <v>x10</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="29"/>
     </row>
@@ -1006,7 +1032,9 @@
         <v>x11</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="29"/>
     </row>
@@ -1020,7 +1048,9 @@
         <v>x12</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="29"/>
     </row>
@@ -1034,7 +1064,9 @@
         <v>x13</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="29"/>
     </row>
@@ -1048,7 +1080,9 @@
         <v>x14</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="29"/>
     </row>
@@ -1062,7 +1096,9 @@
         <v>x15</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="29"/>
     </row>
@@ -1076,7 +1112,9 @@
         <v>x16</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="29"/>
     </row>
@@ -1090,7 +1128,9 @@
         <v>x17</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="29"/>
     </row>
@@ -1104,7 +1144,9 @@
         <v>x18</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="29"/>
     </row>
@@ -1118,7 +1160,9 @@
         <v>x19</v>
       </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="29"/>
     </row>
@@ -1132,7 +1176,9 @@
         <v>x1A</v>
       </c>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="29"/>
     </row>
@@ -1146,7 +1192,9 @@
         <v>x1B</v>
       </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="29"/>
     </row>
@@ -1756,6 +1804,12 @@
       <c r="B85" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x4D</v>
+      </c>
+      <c r="C85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/firmware-register-map-psec4a-evm.xlsx
+++ b/doc/firmware-register-map-psec4a-evm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>Register Map</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>0=all samples, 1=ping-pong 528-sample blocks</t>
+  </si>
+  <si>
+    <t>psec4a self-trigger mode</t>
+  </si>
+  <si>
+    <t>00=off, 01=or trigger, 10=AND trigger, 11=sum trigger</t>
+  </si>
+  <si>
+    <t>psec4a self-trigger mask</t>
+  </si>
+  <si>
+    <t>lower 8 bits</t>
   </si>
 </sst>
 </file>
@@ -668,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +689,7 @@
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
@@ -1781,8 +1793,12 @@
         <f t="shared" si="2"/>
         <v>x4B</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="17"/>
+      <c r="C83" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="E83" s="8"/>
       <c r="F83" s="25"/>
     </row>
@@ -1794,6 +1810,12 @@
       <c r="B84" s="19" t="str">
         <f t="shared" si="2"/>
         <v>x4C</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
